--- a/database.xlsx
+++ b/database.xlsx
@@ -12,8 +12,9 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="database" sheetId="1" r:id="rId1"/>
-    <sheet name="chức năng" sheetId="2" r:id="rId2"/>
+    <sheet name="mục tiêu và mô tả" sheetId="3" r:id="rId1"/>
+    <sheet name="database" sheetId="1" r:id="rId2"/>
+    <sheet name="chức năng" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="66">
   <si>
     <t>content</t>
   </si>
@@ -57,18 +58,6 @@
     <t>Comment</t>
   </si>
   <si>
-    <t>iduser</t>
-  </si>
-  <si>
-    <t>idblog</t>
-  </si>
-  <si>
-    <t>commentReplyId</t>
-  </si>
-  <si>
-    <t>likes</t>
-  </si>
-  <si>
     <t>shares</t>
   </si>
   <si>
@@ -81,12 +70,6 @@
     <t>images</t>
   </si>
   <si>
-    <t>datecreate</t>
-  </si>
-  <si>
-    <t>dateupdate</t>
-  </si>
-  <si>
     <t>role</t>
   </si>
   <si>
@@ -99,28 +82,172 @@
     <t>show,thêm, xoá,sửa bài viết</t>
   </si>
   <si>
-    <t>chức năng xác nhận hàng đã được nhận, 1 là mang xuống cuối, hoặc ẩn đi
-sau khi xác nhận sẽ cộng thêm level
+    <t>share</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>follow</t>
+  </si>
+  <si>
+    <t>token</t>
+  </si>
+  <si>
+    <t>date_create</t>
+  </si>
+  <si>
+    <t>id_likes</t>
+  </si>
+  <si>
+    <t>date_update</t>
+  </si>
+  <si>
+    <t>người tham gia</t>
+  </si>
+  <si>
+    <t>trang</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>MÔ TẢ CHI TIẾT ỨNG DỤNG</t>
+  </si>
+  <si>
+    <t>Ứng dụng được dùng để những người có đồ dư thừa, những đồ dùng không còn dùng nữa,
+ví dụ như: chai nhựa, thùng xốp, áo quần, vỏ lon bia,chai thuỷ tinh, bao bì carton,(những đồ dùng có khả năng tái chế)</t>
+  </si>
+  <si>
+    <t>Mục tiêu</t>
+  </si>
+  <si>
+    <t>Mô tả</t>
+  </si>
+  <si>
+    <t>Tạo ra một ứng dụng cho phép khách hàng đăng bài, người dùng liên hệ để nhận hàng
+có thể chat với người cho để trao đổi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sau khi xác nhận sẽ cộng thêm level
 như 
 level 1: người hảo tâm
 Level 2: người tốt
 Level 3: người nhân ái
 Level 4: mạnh thường quân
 Level 5: đại thiện nhân
-làm sao để nó không spam vừa đăng vừa xác nhận
-có thể giới hạn 1 ngày chỉ đăng được khoảng 10-20 bài</t>
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> xác nhận là bài đăng đã có người nhận.
+</t>
   </si>
   <si>
     <t xml:space="preserve"> kiểm duyệt bài đăng, 
-kiểm duyệt tự động,
- lọc từ khóa cấm chẳng hạn</t>
+</t>
+  </si>
+  <si>
+    <t>kiểm duyệt tự động,
+ lọc từ khóa cấm</t>
+  </si>
+  <si>
+    <t>nhằm tìm kiếm dễ hơn với vùng cụ thể như HCM, Hà Nội…</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>người quản trị</t>
+  </si>
+  <si>
+    <t>user, người quản trị</t>
+  </si>
+  <si>
+    <t>bổ sung thông tin tài khoản, sửa địa chỉ,sdt, ảnh đại diện</t>
+  </si>
+  <si>
+    <t>tạo sự kiện cho user</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> like</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>repcomment, like comment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sự kiện sẽ được tạo bằng người dùng và admin sẽ kiểm duyệt
+người dùng có thể xem được sự kiện, ví dụ như phát gạo cứu đói mùa covid,
+cho tặng khẩu trang ở ngã năm chuồng chó </t>
+  </si>
+  <si>
+    <t>tìm kiếm theo vùng,theo người, hoặc theo nội dung</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> thông báo khi có người đăng,có người bình luận, về bài viết</t>
+  </si>
+  <si>
+    <t>bổ sung tài khoản</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đăng nhập </t>
+  </si>
+  <si>
+    <t xml:space="preserve">User đăng nhập sẽ chuyển qua trang home, 
+người quản trị đăng nhập sẽ chuyển qua trang quản trị </t>
+  </si>
+  <si>
+    <t>Đăng Xuất</t>
+  </si>
+  <si>
+    <t>Đăng xuất</t>
+  </si>
+  <si>
+    <t>chat</t>
+  </si>
+  <si>
+    <t>Người dùng có thể chat với người đăng bài để nhận đồ từ thiện</t>
+  </si>
+  <si>
+    <t>thông báo(sự kiện)</t>
+  </si>
+  <si>
+    <t>thông báo(thăng hạng)</t>
+  </si>
+  <si>
+    <t>Thông báo khi người dùng thăng hạng, chức năng này được thiết kế để show ra huy hiệu(y chang thông thạo trong liên minh)</t>
+  </si>
+  <si>
+    <t>điền thông tin khi đăng nhập lần đầu</t>
+  </si>
+  <si>
+    <t>hiện lên box cập nhật sdt, địa chỉ khi đăng bài 
+lần đầu</t>
+  </si>
+  <si>
+    <t>show những mạnh thường quân</t>
+  </si>
+  <si>
+    <t xml:space="preserve">khi cick vào mạnh thường quân ở menu bên trái sẽ show ra 
+những mạnh thường quân quyên góp nhiều nhất </t>
+  </si>
+  <si>
+    <t>comment_reply_id</t>
+  </si>
+  <si>
+    <t>id_user</t>
+  </si>
+  <si>
+    <t>id_blog</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,8 +264,41 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="16"/>
       <color rgb="FF050505"/>
+      <name val="Segoe UI Historic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF0070C0"/>
+      <name val="Segoe UI Historic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
       <name val="Segoe UI Historic"/>
       <family val="2"/>
     </font>
@@ -163,19 +323,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -458,10 +635,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:F12"/>
+  <dimension ref="B1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" customWidth="1"/>
+    <col min="2" max="4" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="32" customWidth="1"/>
+    <col min="6" max="6" width="53" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="5:6" ht="21" x14ac:dyDescent="0.35">
+      <c r="F1" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="5:6" ht="104.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E5" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="5:6" ht="99" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E6" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="5:6" ht="42" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:G16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -471,9 +691,9 @@
     <col min="6" max="6" width="24.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:6" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C3" s="1" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>3</v>
@@ -481,102 +701,145 @@
       <c r="F3" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="3:7" ht="21" x14ac:dyDescent="0.35">
+      <c r="C4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F4" t="s">
+      <c r="E4" s="8"/>
+      <c r="F4" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
+    <row r="5" spans="3:7" ht="21" x14ac:dyDescent="0.35">
+      <c r="C5" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F5" t="s">
+      <c r="E5" s="8"/>
+      <c r="F5" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="3:7" ht="21" x14ac:dyDescent="0.35">
+      <c r="C6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="3:7" ht="21" x14ac:dyDescent="0.35">
+      <c r="C7" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="3:7" ht="21" x14ac:dyDescent="0.35">
+      <c r="C8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="3:7" ht="21" x14ac:dyDescent="0.35">
+      <c r="C9" s="8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="D9" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="E9" s="8"/>
+      <c r="F9" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="3:7" ht="21" x14ac:dyDescent="0.35">
+      <c r="C10" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
+      <c r="E10" s="8"/>
+      <c r="F10" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" t="s">
+    </row>
+    <row r="11" spans="3:7" ht="21" x14ac:dyDescent="0.35">
+      <c r="C11" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="3:7" ht="21" x14ac:dyDescent="0.35">
+      <c r="C12" s="8"/>
+      <c r="D12" s="8" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D12" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" t="s">
-        <v>19</v>
-      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="3:7" ht="21" x14ac:dyDescent="0.35">
+      <c r="C13" s="8"/>
+      <c r="D13" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" spans="3:7" ht="21" x14ac:dyDescent="0.35">
+      <c r="C14" s="8"/>
+      <c r="D14" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="3:7" ht="21" x14ac:dyDescent="0.35">
+      <c r="C15" s="8"/>
+      <c r="D15" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+    </row>
+    <row r="16" spans="3:7" ht="21" x14ac:dyDescent="0.35">
+      <c r="C16" s="8"/>
+      <c r="D16" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -584,39 +847,308 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:C4"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="29.85546875" customWidth="1"/>
-    <col min="3" max="3" width="64.42578125" customWidth="1"/>
-    <col min="4" max="4" width="24.140625" customWidth="1"/>
+    <col min="1" max="1" width="4.5703125" customWidth="1"/>
+    <col min="2" max="2" width="62.42578125" customWidth="1"/>
+    <col min="3" max="3" width="46.85546875" customWidth="1"/>
+    <col min="4" max="4" width="38.42578125" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:3" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C1" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C2" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="3:3" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="3:3" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="C4" s="5" t="s">
+    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>25</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="25.5" x14ac:dyDescent="0.5">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="66" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="51" x14ac:dyDescent="0.5">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="76.5" x14ac:dyDescent="0.5">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="25.5" x14ac:dyDescent="0.5">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="25.5" x14ac:dyDescent="0.5">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="25.5" x14ac:dyDescent="0.5">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="E8" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="25.5" x14ac:dyDescent="0.5">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="E9" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="178.5" x14ac:dyDescent="0.5">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="51" x14ac:dyDescent="0.5">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="51" x14ac:dyDescent="0.5">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="102" x14ac:dyDescent="0.5">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="25.5" x14ac:dyDescent="0.5">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="76.5" x14ac:dyDescent="0.5">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="102" x14ac:dyDescent="0.5">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="76.5" x14ac:dyDescent="0.5">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="102" x14ac:dyDescent="0.5">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
